--- a/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-221 Sandwich_01.xlsx
+++ b/Data Extraction And Loading/Import Files/Retail Item/WorkingXLS/Retail Item-221 Sandwich_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuck\Documents\ROC\Speedway-Source\Data Extraction And Loading\Import Files\Retail Item\WorkingXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36F793F-109F-42DD-A0A0-FB7D24B7C35A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73CD23E6-436D-4C94-9EC3-F1FCE5983ABF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="23016" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="278">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -295,13 +295,13 @@
     <t>n</t>
   </si>
   <si>
-    <t>MTC PREMIUM ANGUS BURGER</t>
+    <t>PULLED PORK SUB 6IN TSTD</t>
   </si>
   <si>
     <t>g</t>
   </si>
   <si>
-    <t>221 04 102 Hot Lunch Sandwich</t>
+    <t>221 22 103 Cafe Sub Toasted</t>
   </si>
   <si>
     <t>Count</t>
@@ -322,346 +322,538 @@
     <t>Prepared Foods</t>
   </si>
   <si>
-    <t>1124380-1</t>
+    <t>1125230-1</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>_4111210507</t>
+    <t>_91125230</t>
   </si>
   <si>
     <t>Transfer Group</t>
   </si>
   <si>
+    <t>FARMLAND BACON PRECOOKED 300 CT</t>
+  </si>
+  <si>
+    <t>221 03 101 Bfast Supply Perish</t>
+  </si>
+  <si>
+    <t>Supermom</t>
+  </si>
+  <si>
+    <t>Default Strategy</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>CUBAN SUB 6IN CLD</t>
+  </si>
+  <si>
+    <t>221 22 102 Cafe Sub Cold</t>
+  </si>
+  <si>
+    <t>1125236-1</t>
+  </si>
+  <si>
+    <t>_91125236</t>
+  </si>
+  <si>
+    <t>MONARCH MARKING LABELS FF-312</t>
+  </si>
+  <si>
+    <t>221 04 100 Lunch Supply</t>
+  </si>
+  <si>
+    <t>OH SNAP PRETTY PEAS 1.5 FL OZ</t>
+  </si>
+  <si>
+    <t>221 07 100 Misc Deli</t>
+  </si>
+  <si>
+    <t>aDeli Case</t>
+  </si>
+  <si>
+    <t>1125307-1</t>
+  </si>
+  <si>
     <t>u</t>
   </si>
   <si>
-    <t>_841112105074</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN SAUSAGE</t>
-  </si>
-  <si>
-    <t>221 05 103 Whole Pizza</t>
-  </si>
-  <si>
-    <t>37003089-1</t>
-  </si>
-  <si>
-    <t>_937003089</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN PEPPERONI</t>
-  </si>
-  <si>
-    <t>37003090-1</t>
-  </si>
-  <si>
-    <t>_937003090</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN WORKS</t>
-  </si>
-  <si>
-    <t>37003091-1</t>
-  </si>
-  <si>
-    <t>_937003091</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN MEAT</t>
-  </si>
-  <si>
-    <t>37003092-1</t>
-  </si>
-  <si>
-    <t>_937003092</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN BREAKFAST</t>
-  </si>
-  <si>
-    <t>37003093-1</t>
-  </si>
-  <si>
-    <t>_937003093</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN BACON &amp; GREEN CHILI</t>
-  </si>
-  <si>
-    <t>37003094-1</t>
-  </si>
-  <si>
-    <t>_937003094</t>
-  </si>
-  <si>
-    <t>EGG WHITE PATTY</t>
-  </si>
-  <si>
-    <t>221 03 101 Bfast Supply Perish</t>
-  </si>
-  <si>
-    <t>SUNNY FRESH FOODS INC</t>
+    <t>_074329123436</t>
+  </si>
+  <si>
+    <t>CHEESEWICH STRING CHEESE</t>
+  </si>
+  <si>
+    <t>1125310-1</t>
+  </si>
+  <si>
+    <t>_709893005566</t>
+  </si>
+  <si>
+    <t>CHEESEWICH SMOKED CHEESE</t>
+  </si>
+  <si>
+    <t>1125311-1</t>
+  </si>
+  <si>
+    <t>_709893008994</t>
+  </si>
+  <si>
+    <t>FRIGO MILD CHEDDAR CHEESE</t>
+  </si>
+  <si>
+    <t>221 07 101 Snacking Cheese</t>
+  </si>
+  <si>
+    <t>1125312-1</t>
+  </si>
+  <si>
+    <t>_041716899885</t>
+  </si>
+  <si>
+    <t>FRIGO CHD CHEESE WITH PARM</t>
+  </si>
+  <si>
+    <t>1125313-1</t>
+  </si>
+  <si>
+    <t>_041716899922</t>
+  </si>
+  <si>
+    <t>HONEY MUSTARD SAUCE CUP 2Z</t>
+  </si>
+  <si>
+    <t>221 04 101 Lunch Supply Perish</t>
+  </si>
+  <si>
+    <t>RANCH SAUCE CUP 2Z</t>
+  </si>
+  <si>
+    <t>BBQ SAUCE CUP 2Z</t>
+  </si>
+  <si>
+    <t>SARGENTO CHEESE SOUTHWST BLND STICK .75Z</t>
+  </si>
+  <si>
+    <t>1125689-1</t>
+  </si>
+  <si>
+    <t>_046100003787</t>
+  </si>
+  <si>
+    <t>Manufacturer-***</t>
+  </si>
+  <si>
+    <t>Sargento Foods Inc.</t>
+  </si>
+  <si>
+    <t>Product Size-***</t>
+  </si>
+  <si>
+    <t>.75oz</t>
+  </si>
+  <si>
+    <t>Product Type-***</t>
+  </si>
+  <si>
+    <t>Cheese</t>
+  </si>
+  <si>
+    <t>WAKEFIELD BCH/WP BCN CHSBRG KAISER 5.2Z</t>
+  </si>
+  <si>
+    <t>221 02 100 Warehouse Delivered</t>
+  </si>
+  <si>
+    <t>1125691-1</t>
+  </si>
+  <si>
+    <t>_642984675821</t>
+  </si>
+  <si>
+    <t>Flavor Type-***</t>
+  </si>
+  <si>
+    <t>Bacon Cheeseburger</t>
+  </si>
+  <si>
+    <t>5.2oz</t>
+  </si>
+  <si>
+    <t>MFN SAUSAGE EGGWICH</t>
+  </si>
+  <si>
+    <t>221 24 102 Breakfast Value</t>
+  </si>
+  <si>
+    <t>1125756-1</t>
+  </si>
+  <si>
+    <t>_91125756</t>
+  </si>
+  <si>
+    <t>MFN SAUSAGE BACON EGGWICH</t>
+  </si>
+  <si>
+    <t>221 24 103 Breakfast Premium</t>
+  </si>
+  <si>
+    <t>1125757-1</t>
+  </si>
+  <si>
+    <t>_91125757</t>
+  </si>
+  <si>
+    <t>MFN DOUBLE SAUSAGE EGGWICH</t>
+  </si>
+  <si>
+    <t>1125758-1</t>
+  </si>
+  <si>
+    <t>_91125758</t>
+  </si>
+  <si>
+    <t>MFN DOUBLE SAUSAGE EGG MUFFIN</t>
+  </si>
+  <si>
+    <t>1125759-1</t>
+  </si>
+  <si>
+    <t>_91125759</t>
+  </si>
+  <si>
+    <t>MFN DOUBLE SAUSAGE EGG BISCUIT</t>
+  </si>
+  <si>
+    <t>1125764-1</t>
+  </si>
+  <si>
+    <t>_91125764</t>
+  </si>
+  <si>
+    <t>MFN RODEO BISCUIT</t>
+  </si>
+  <si>
+    <t>1125765-1</t>
+  </si>
+  <si>
+    <t>_91125765</t>
+  </si>
+  <si>
+    <t>MFN RODEO MUFFIN</t>
+  </si>
+  <si>
+    <t>1125766-1</t>
+  </si>
+  <si>
+    <t>_91125766</t>
+  </si>
+  <si>
+    <t>MFN RODEO GRILLED WRAP</t>
+  </si>
+  <si>
+    <t>1125768-1</t>
+  </si>
+  <si>
+    <t>_91125768</t>
+  </si>
+  <si>
+    <t>MFN RODEO PANINI</t>
+  </si>
+  <si>
+    <t>221 21 102 Cafe Panini</t>
+  </si>
+  <si>
+    <t>1125770-1</t>
+  </si>
+  <si>
+    <t>_91125770</t>
+  </si>
+  <si>
+    <t>MFN HOT HAM SWISS CROISSANT</t>
+  </si>
+  <si>
+    <t>1125771-1</t>
+  </si>
+  <si>
+    <t>_91125771</t>
+  </si>
+  <si>
+    <t>MFN HOT HAM SWISS GRILLED WRAP</t>
+  </si>
+  <si>
+    <t>1125772-1</t>
+  </si>
+  <si>
+    <t>_91125772</t>
+  </si>
+  <si>
+    <t>MFN HOT HAM SWISS PANINI</t>
+  </si>
+  <si>
+    <t>1125773-1</t>
+  </si>
+  <si>
+    <t>_91125773</t>
+  </si>
+  <si>
+    <t>MFN EGG WHITE HAM MUFFIN</t>
+  </si>
+  <si>
+    <t>1125774-1</t>
+  </si>
+  <si>
+    <t>_91125774</t>
+  </si>
+  <si>
+    <t>PAPA PRIMO PIZZA BOX 7in 250ct</t>
+  </si>
+  <si>
+    <t>221 05 100 Pizza Supply</t>
+  </si>
+  <si>
+    <t>MFN STEAK EGG WRAP</t>
+  </si>
+  <si>
+    <t>1125777-1</t>
+  </si>
+  <si>
+    <t>_91125777</t>
+  </si>
+  <si>
+    <t>MFN STEAK EGG PANINI</t>
+  </si>
+  <si>
+    <t>1125779-1</t>
+  </si>
+  <si>
+    <t>_91125779</t>
+  </si>
+  <si>
+    <t>CYOB PHILLY STEAK</t>
+  </si>
+  <si>
+    <t>221 24 104 Breakfast CYOB</t>
+  </si>
+  <si>
+    <t>1125780-1</t>
+  </si>
+  <si>
+    <t>_91125780</t>
+  </si>
+  <si>
+    <t>CYOB EGGWICH</t>
+  </si>
+  <si>
+    <t>1125781-1</t>
+  </si>
+  <si>
+    <t>_91125781</t>
+  </si>
+  <si>
+    <t>ACROBASSO MUSTARD DELI SPICY 13Z</t>
+  </si>
+  <si>
+    <t>ACROBASSO SAUCE SPICY CHIPOTLE 12Z</t>
+  </si>
+  <si>
+    <t>ACROBASSO SAUCE SMOKEY BBQ 12Z</t>
+  </si>
+  <si>
+    <t>MFN PULLED PORK PANINI</t>
+  </si>
+  <si>
+    <t>1125790-1</t>
+  </si>
+  <si>
+    <t>_91125790</t>
+  </si>
+  <si>
+    <t>CHEESEWICH CHS SNACK MILD CHD SALAMI2.5Z</t>
+  </si>
+  <si>
+    <t>1125798-1</t>
+  </si>
+  <si>
+    <t>_709893013004</t>
+  </si>
+  <si>
+    <t>ACROBASSO CAROLINA BBQ</t>
+  </si>
+  <si>
+    <t>221 20 102 Dipping Sauce</t>
+  </si>
+  <si>
+    <t>SMITHFIELD SMOKED PULLED PORK</t>
+  </si>
+  <si>
+    <t>221 21 101 Cafe SandSup Perish</t>
+  </si>
+  <si>
+    <t>Smithfield</t>
   </si>
   <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>Default Strategy</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>BASILIO PIZZA 7IN CHEESE SUPPLY</t>
-  </si>
-  <si>
-    <t>221 05 101 Pizza Supply Perish</t>
-  </si>
-  <si>
-    <t>ORION FOOD SYSTEM</t>
-  </si>
-  <si>
-    <t>JIMMY DEAN SAUSAGE MAPLE LINK 6/1 2.7Z</t>
-  </si>
-  <si>
-    <t>TYSON CHICKEN FRITTER HOT N SPICY 4Z</t>
-  </si>
-  <si>
-    <t>221 04 101 Lunch Supply Perish</t>
-  </si>
-  <si>
-    <t>PUEBLO ONIONS WHITE</t>
-  </si>
-  <si>
-    <t>PUEBLO FRUITAS INC</t>
-  </si>
-  <si>
-    <t>PUEBLO BELL PEPPERS</t>
-  </si>
-  <si>
-    <t>PEPPERONI SLICED</t>
-  </si>
-  <si>
-    <t>Tyson Foods</t>
-  </si>
-  <si>
-    <t>MFN POTATO BUN</t>
+    <t>PULLED PORK SUB 12IN CLD</t>
+  </si>
+  <si>
+    <t>1126200-1</t>
+  </si>
+  <si>
+    <t>_91126200</t>
+  </si>
+  <si>
+    <t>PULLED PORK SUB 12IN TSTD</t>
+  </si>
+  <si>
+    <t>1126201-1</t>
+  </si>
+  <si>
+    <t>_91126201</t>
+  </si>
+  <si>
+    <t>PULLED PORK SUB 6IN CLD</t>
+  </si>
+  <si>
+    <t>1126202-1</t>
+  </si>
+  <si>
+    <t>_91126202</t>
+  </si>
+  <si>
+    <t>CUBAN SUB 12IN CLD</t>
+  </si>
+  <si>
+    <t>1126204-1</t>
+  </si>
+  <si>
+    <t>_91126204</t>
+  </si>
+  <si>
+    <t>CUBAN SUB 12IN TSTD</t>
+  </si>
+  <si>
+    <t>1126206-1</t>
+  </si>
+  <si>
+    <t>_1126206</t>
+  </si>
+  <si>
+    <t>CUBAN SUB 6IN TSTD</t>
+  </si>
+  <si>
+    <t>1126210-1</t>
+  </si>
+  <si>
+    <t>_91126210</t>
+  </si>
+  <si>
+    <t>MFN CUBAN PANINI</t>
+  </si>
+  <si>
+    <t>1126211-1</t>
+  </si>
+  <si>
+    <t>_91126211</t>
+  </si>
+  <si>
+    <t>MFN PULLED PORK GRILLED WRAP</t>
+  </si>
+  <si>
+    <t>221 26 102 Cafe Grilled Wraps</t>
+  </si>
+  <si>
+    <t>1126214-1</t>
+  </si>
+  <si>
+    <t>_91126214</t>
+  </si>
+  <si>
+    <t>MFN PULLED PORK SANDWICH</t>
   </si>
   <si>
     <t>221 21 103 Cafe Burgers</t>
   </si>
   <si>
-    <t>1124484-1</t>
-  </si>
-  <si>
-    <t>_91124484</t>
-  </si>
-  <si>
-    <t>MFN GRILLED SOURDOUGH BREAD</t>
-  </si>
-  <si>
-    <t>1124485-1</t>
-  </si>
-  <si>
-    <t>_91124485</t>
-  </si>
-  <si>
-    <t>MFN BOWL</t>
-  </si>
-  <si>
-    <t>1124486-1</t>
-  </si>
-  <si>
-    <t>_91124486</t>
-  </si>
-  <si>
-    <t>MUSHROOM IMPORTED PCS/STEMS</t>
-  </si>
-  <si>
-    <t>LAND MARK PRODUCTS INC</t>
-  </si>
-  <si>
-    <t>MFN CHICKEN AND EGG WHT MUFFIN</t>
-  </si>
-  <si>
-    <t>221 24 103 Breakfast Premium</t>
-  </si>
-  <si>
-    <t>1124490-1</t>
-  </si>
-  <si>
-    <t>_91124490</t>
-  </si>
-  <si>
-    <t>CYOB EGG WHITE</t>
-  </si>
-  <si>
-    <t>221 24 104 Breakfast CYOB</t>
-  </si>
-  <si>
-    <t>1124491-1</t>
-  </si>
-  <si>
-    <t>_91124491</t>
-  </si>
-  <si>
-    <t>CYOB CHICKEN SAUSAGE</t>
-  </si>
-  <si>
-    <t>1124492-1</t>
-  </si>
-  <si>
-    <t>_91124492</t>
-  </si>
-  <si>
-    <t>MFN CHICKEN AND EGG WHT MUFFIN HTG</t>
-  </si>
-  <si>
-    <t>1124493-1</t>
-  </si>
-  <si>
-    <t>_91124493</t>
-  </si>
-  <si>
-    <t>CHOLULA HOT SAUCE</t>
-  </si>
-  <si>
-    <t>CLASSIC SALSA CHUNKY</t>
-  </si>
-  <si>
-    <t>PPI HOT SAUCE 3GR</t>
-  </si>
-  <si>
-    <t>INTERFOLD DELI SHTS 8X10.75</t>
-  </si>
-  <si>
-    <t>221 04 100 Lunch Supply</t>
-  </si>
-  <si>
-    <t>TACO MEAT #6</t>
-  </si>
-  <si>
-    <t>HAIR NET BROWN</t>
-  </si>
-  <si>
-    <t>CONT CLEAR HINGED 6IN</t>
-  </si>
-  <si>
-    <t>LAMB ONION RINGS BATTERED</t>
-  </si>
-  <si>
-    <t>FILTER GREASE CONE 10IN</t>
-  </si>
-  <si>
-    <t>PAN SPRAY AEROSOL</t>
-  </si>
-  <si>
-    <t>CLEAR WRAP FILM 12X2000</t>
-  </si>
-  <si>
-    <t>BOIL OUT FRYER CLEANER 8Z</t>
-  </si>
-  <si>
-    <t>BAG WESTERN RED</t>
-  </si>
-  <si>
-    <t>BAG WESTERN GREEN</t>
-  </si>
-  <si>
-    <t>BAG WESTERN GOLD</t>
-  </si>
-  <si>
-    <t>BAG WESTERN BLUE</t>
-  </si>
-  <si>
-    <t>BEEF FAJITAS COOKED</t>
-  </si>
-  <si>
-    <t>MINH EGG ROLL PORK &amp; VEG</t>
-  </si>
-  <si>
-    <t>CARNE ASADA BEEF</t>
-  </si>
-  <si>
-    <t>CHEESE AMERICAN SLCD 5LBS</t>
-  </si>
-  <si>
-    <t>FOIL HVY DUTY 12X500</t>
-  </si>
-  <si>
-    <t>SALSA DEL SOL SCE PICANTE  3R860</t>
-  </si>
-  <si>
-    <t>QUAT TEST PAPERS</t>
-  </si>
-  <si>
-    <t>HEINZ DUNK CUP BBQ SAUCE</t>
-  </si>
-  <si>
-    <t>PHASE ZT NO SODIUM LIQ BTTR ALT</t>
-  </si>
-  <si>
-    <t>TYSON HOT &amp; SPICY WINGS</t>
-  </si>
-  <si>
-    <t>BEANS REFRIED 4/10</t>
-  </si>
-  <si>
-    <t>HEINZ BBQ SAUCE 1GL</t>
-  </si>
-  <si>
-    <t>FOSTER FARMS JAL/CHS CRN DG W/BG</t>
-  </si>
-  <si>
-    <t>FOSTER FARMS CHIX CORN DOG W/BAG</t>
-  </si>
-  <si>
-    <t>SPDY G2G ANGUS BURGER LABEL</t>
-  </si>
-  <si>
-    <t>Belmark</t>
-  </si>
-  <si>
-    <t>EL MONT BUR BF BN CHIMI</t>
-  </si>
-  <si>
-    <t>221 07 102 Burritos</t>
-  </si>
-  <si>
-    <t>aDeli Case</t>
-  </si>
-  <si>
-    <t>37003321-1</t>
-  </si>
-  <si>
-    <t>_071007010941</t>
-  </si>
-  <si>
-    <t>HOT STUFF DOUGH DISC 12" THIN</t>
-  </si>
-  <si>
-    <t>HOT STUFF MED PIZZA LABEL</t>
-  </si>
-  <si>
-    <t>221 05 100 Pizza Supply</t>
-  </si>
-  <si>
-    <t>CARGILL SCRAMBLED EGG PATTIES 1.5Z</t>
-  </si>
-  <si>
-    <t>Cargill Kitchen</t>
-  </si>
-  <si>
-    <t>KLOSTERMAN BUN POTATO 4.25IN 8PK</t>
-  </si>
-  <si>
-    <t>Klosterman</t>
+    <t>1126216-1</t>
+  </si>
+  <si>
+    <t>_91126216</t>
+  </si>
+  <si>
+    <t>MFN PULLED PORK SANDWICH HTG</t>
+  </si>
+  <si>
+    <t>1126218-1</t>
+  </si>
+  <si>
+    <t>_91126218</t>
+  </si>
+  <si>
+    <t>MFN CUBAN GRILLED WRAP</t>
+  </si>
+  <si>
+    <t>1126220-1</t>
+  </si>
+  <si>
+    <t>_91126220</t>
+  </si>
+  <si>
+    <t>2 CAR BBQ</t>
+  </si>
+  <si>
+    <t>221 22 104 Cafe Sub Toppings</t>
+  </si>
+  <si>
+    <t>1126233-1</t>
+  </si>
+  <si>
+    <t>_91126233</t>
+  </si>
+  <si>
+    <t>1 PORK</t>
+  </si>
+  <si>
+    <t>1126234-1</t>
+  </si>
+  <si>
+    <t>_91126234</t>
+  </si>
+  <si>
+    <t>2 PORK</t>
+  </si>
+  <si>
+    <t>1126236-1</t>
+  </si>
+  <si>
+    <t>_91126236</t>
+  </si>
+  <si>
+    <t>6 Ham</t>
+  </si>
+  <si>
+    <t>1126237-1</t>
+  </si>
+  <si>
+    <t>_91126237</t>
+  </si>
+  <si>
+    <t>2 Ham</t>
+  </si>
+  <si>
+    <t>1126238-1</t>
+  </si>
+  <si>
+    <t>_91126238</t>
   </si>
 </sst>
 </file>
@@ -1869,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DI62"/>
+  <dimension ref="A1:DI58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1878,36 +2070,36 @@
       <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="10.109375" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
     <col min="31" max="31" width="11" customWidth="1"/>
     <col min="32" max="32" width="9" customWidth="1"/>
-    <col min="35" max="35" width="10.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.7109375" customWidth="1"/>
     <col min="39" max="39" width="12" customWidth="1"/>
-    <col min="41" max="41" width="8.88671875" style="15"/>
-    <col min="43" max="43" width="19.33203125" style="13" customWidth="1"/>
-    <col min="44" max="44" width="15.6640625" customWidth="1"/>
-    <col min="45" max="45" width="15.6640625" style="6" customWidth="1"/>
-    <col min="46" max="103" width="15.6640625" customWidth="1"/>
-    <col min="104" max="113" width="19.21875" customWidth="1"/>
+    <col min="41" max="41" width="8.85546875" style="15"/>
+    <col min="43" max="43" width="19.28515625" style="13" customWidth="1"/>
+    <col min="44" max="44" width="15.7109375" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" style="6" customWidth="1"/>
+    <col min="46" max="103" width="15.7109375" customWidth="1"/>
+    <col min="104" max="113" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="9" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18"/>
       <c r="B1" s="25"/>
       <c r="C1" s="34" t="s">
@@ -2034,7 +2226,7 @@
       <c r="DH1" s="32"/>
       <c r="DI1" s="33"/>
     </row>
-    <row r="2" spans="1:113" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>18</v>
       </c>
@@ -2239,7 +2431,7 @@
       <c r="DH2" s="27"/>
       <c r="DI2" s="28"/>
     </row>
-    <row r="3" spans="1:113" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="3"/>
@@ -2558,9 +2750,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1124380</v>
+        <v>1125230</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -2626,7 +2818,7 @@
         <v>100</v>
       </c>
       <c r="AO4">
-        <v>3.59</v>
+        <v>5.49</v>
       </c>
       <c r="AP4" t="s">
         <v>101</v>
@@ -2638,38 +2830,101 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1124380</v>
+        <v>1125231</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="S5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>90</v>
       </c>
       <c r="AK5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL5">
-        <v>1</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO5" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="AQ5" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>37003089</v>
+        <v>1125236</v>
       </c>
       <c r="B6" t="s">
         <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
         <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
         <v>94</v>
@@ -2720,36 +2975,36 @@
         <v>99</v>
       </c>
       <c r="AN6" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AO6" s="15">
-        <v>3.99</v>
+        <v>5.49</v>
       </c>
       <c r="AP6" t="s">
         <v>101</v>
       </c>
       <c r="AQ6" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="CZ6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>37003090</v>
+        <v>37003383</v>
       </c>
       <c r="B7" t="s">
         <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G7" t="s">
         <v>94</v>
@@ -2779,57 +3034,54 @@
         <v>97</v>
       </c>
       <c r="AE7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s">
         <v>90</v>
       </c>
       <c r="AG7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AH7" t="s">
         <v>90</v>
       </c>
       <c r="AK7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL7">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>108</v>
       </c>
       <c r="AM7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="AN7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO7" s="15">
-        <v>3.99</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="AO7" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="AQ7" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="CZ7" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37003091</v>
+        <v>1125307</v>
       </c>
       <c r="B8" t="s">
         <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
         <v>94</v>
@@ -2877,39 +3129,36 @@
         <v>1</v>
       </c>
       <c r="AM8" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AN8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AO8" s="15">
-        <v>3.99</v>
+        <v>1.29</v>
       </c>
       <c r="AP8" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AQ8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>37003092</v>
+        <v>1125310</v>
       </c>
       <c r="B9" t="s">
         <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E9" t="s">
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
         <v>94</v>
@@ -2957,39 +3206,39 @@
         <v>1</v>
       </c>
       <c r="AM9" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AN9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AO9" s="15">
-        <v>3.99</v>
+        <v>0.69</v>
       </c>
       <c r="AP9" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AQ9" s="13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="CZ9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>37003093</v>
+        <v>1125311</v>
       </c>
       <c r="B10" t="s">
         <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
         <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>94</v>
@@ -3037,39 +3286,39 @@
         <v>1</v>
       </c>
       <c r="AM10" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AN10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>0.69</v>
+      </c>
+      <c r="AP10" t="s">
         <v>120</v>
       </c>
-      <c r="AO10" s="15">
-        <v>3.99</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>101</v>
-      </c>
       <c r="AQ10" s="13" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="CZ10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>37003094</v>
+        <v>1125312</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
         <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>94</v>
@@ -3117,49 +3366,43 @@
         <v>1</v>
       </c>
       <c r="AM11" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AN11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="AO11" s="15">
-        <v>3.99</v>
+        <v>1.39</v>
       </c>
       <c r="AP11" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="AQ11" s="13" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="CZ11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>1124414</v>
+        <v>1125313</v>
       </c>
       <c r="B12" t="s">
         <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
         <v>94</v>
       </c>
-      <c r="I12" t="s">
-        <v>127</v>
-      </c>
-      <c r="J12" t="s">
-        <v>128</v>
-      </c>
       <c r="K12" t="s">
         <v>95</v>
       </c>
@@ -3185,61 +3428,61 @@
         <v>97</v>
       </c>
       <c r="AE12" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF12" t="s">
         <v>90</v>
       </c>
       <c r="AG12" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH12" t="s">
         <v>90</v>
       </c>
       <c r="AK12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
       </c>
       <c r="AM12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AN12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO12" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>1.39</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>120</v>
       </c>
       <c r="AQ12" s="13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="CZ12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>37003095</v>
+        <v>37003388</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E13" t="s">
         <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>94</v>
       </c>
-      <c r="I13" t="s">
-        <v>134</v>
-      </c>
       <c r="K13" t="s">
         <v>95</v>
       </c>
@@ -3265,7 +3508,7 @@
         <v>97</v>
       </c>
       <c r="AE13" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s">
         <v>90</v>
@@ -3277,42 +3520,42 @@
         <v>90</v>
       </c>
       <c r="AK13" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL13" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM13" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN13" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO13" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ13" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>36019242</v>
+        <v>37003389</v>
       </c>
       <c r="B14" t="s">
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E14" t="s">
         <v>90</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
         <v>94</v>
@@ -3342,7 +3585,7 @@
         <v>97</v>
       </c>
       <c r="AE14" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF14" t="s">
         <v>90</v>
@@ -3354,42 +3597,42 @@
         <v>90</v>
       </c>
       <c r="AK14" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL14" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM14" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN14" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO14" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ14" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ14" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>36019243</v>
+        <v>37003390</v>
       </c>
       <c r="B15" t="s">
         <v>90</v>
       </c>
       <c r="C15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
         <v>136</v>
-      </c>
-      <c r="E15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
       </c>
       <c r="G15" t="s">
         <v>94</v>
@@ -3419,7 +3662,7 @@
         <v>97</v>
       </c>
       <c r="AE15" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s">
         <v>90</v>
@@ -3431,49 +3674,46 @@
         <v>90</v>
       </c>
       <c r="AK15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO15" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ15" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>37003096</v>
+        <v>1125689</v>
       </c>
       <c r="B16" t="s">
         <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G16" t="s">
         <v>94</v>
       </c>
-      <c r="I16" t="s">
-        <v>139</v>
-      </c>
       <c r="K16" t="s">
         <v>95</v>
       </c>
@@ -3499,61 +3739,79 @@
         <v>97</v>
       </c>
       <c r="AE16" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF16" t="s">
         <v>90</v>
       </c>
       <c r="AG16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH16" t="s">
         <v>90</v>
       </c>
       <c r="AK16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
       </c>
       <c r="AM16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AN16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO16" s="15" t="s">
-        <v>130</v>
+        <v>140</v>
+      </c>
+      <c r="AO16" s="15">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>120</v>
       </c>
       <c r="AQ16" s="13" t="s">
-        <v>131</v>
+        <v>141</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>146</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>147</v>
       </c>
       <c r="CZ16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>37003097</v>
+        <v>1125691</v>
       </c>
       <c r="B17" t="s">
         <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
         <v>94</v>
       </c>
-      <c r="I17" t="s">
-        <v>139</v>
-      </c>
       <c r="K17" t="s">
         <v>95</v>
       </c>
@@ -3579,61 +3837,73 @@
         <v>97</v>
       </c>
       <c r="AE17" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF17" t="s">
         <v>90</v>
       </c>
       <c r="AG17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH17" t="s">
         <v>90</v>
       </c>
       <c r="AK17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
       </c>
       <c r="AM17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AN17" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO17" s="15" t="s">
-        <v>130</v>
+        <v>150</v>
+      </c>
+      <c r="AO17" s="15">
+        <v>3.49</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>120</v>
       </c>
       <c r="AQ17" s="13" t="s">
-        <v>131</v>
+        <v>151</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>154</v>
       </c>
       <c r="CZ17" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>37003098</v>
+        <v>1125756</v>
       </c>
       <c r="B18" t="s">
         <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
         <v>94</v>
       </c>
-      <c r="I18" t="s">
-        <v>142</v>
-      </c>
       <c r="K18" t="s">
         <v>95</v>
       </c>
@@ -3659,54 +3929,57 @@
         <v>97</v>
       </c>
       <c r="AE18" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF18" t="s">
         <v>90</v>
       </c>
       <c r="AG18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH18" t="s">
         <v>90</v>
       </c>
       <c r="AK18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
       </c>
       <c r="AM18" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO18" s="15" t="s">
-        <v>130</v>
+        <v>157</v>
+      </c>
+      <c r="AO18" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>101</v>
       </c>
       <c r="AQ18" s="13" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="CZ18" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1124484</v>
+        <v>1125757</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="E19" t="s">
         <v>92</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
         <v>94</v>
@@ -3757,36 +4030,36 @@
         <v>99</v>
       </c>
       <c r="AN19" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="AO19" s="15">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AP19" t="s">
         <v>101</v>
       </c>
       <c r="AQ19" s="13" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="CZ19" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1124485</v>
+        <v>1125758</v>
       </c>
       <c r="B20" t="s">
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
         <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G20" t="s">
         <v>94</v>
@@ -3837,36 +4110,36 @@
         <v>99</v>
       </c>
       <c r="AN20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="AO20" s="15">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AP20" t="s">
         <v>101</v>
       </c>
       <c r="AQ20" s="13" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="CZ20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>1124486</v>
+        <v>1125759</v>
       </c>
       <c r="B21" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E21" t="s">
         <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G21" t="s">
         <v>94</v>
@@ -3917,43 +4190,40 @@
         <v>99</v>
       </c>
       <c r="AN21" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="AO21" s="15">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="AP21" t="s">
         <v>101</v>
       </c>
       <c r="AQ21" s="13" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="CZ21" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>37003099</v>
+        <v>1125764</v>
       </c>
       <c r="B22" t="s">
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="G22" t="s">
         <v>94</v>
       </c>
-      <c r="I22" t="s">
-        <v>154</v>
-      </c>
       <c r="K22" t="s">
         <v>95</v>
       </c>
@@ -3979,54 +4249,57 @@
         <v>97</v>
       </c>
       <c r="AE22" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF22" t="s">
         <v>90</v>
       </c>
       <c r="AG22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH22" t="s">
         <v>90</v>
       </c>
       <c r="AK22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
       </c>
       <c r="AM22" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO22" s="15" t="s">
-        <v>130</v>
+        <v>170</v>
+      </c>
+      <c r="AO22" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>101</v>
       </c>
       <c r="AQ22" s="13" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="CZ22" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1124490</v>
+        <v>1125765</v>
       </c>
       <c r="B23" t="s">
         <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="E23" t="s">
         <v>92</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G23" t="s">
         <v>94</v>
@@ -4077,30 +4350,30 @@
         <v>99</v>
       </c>
       <c r="AN23" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="AO23" s="15">
-        <v>2.99</v>
+        <v>3.29</v>
       </c>
       <c r="AP23" t="s">
         <v>101</v>
       </c>
       <c r="AQ23" s="13" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="CZ23" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>1124491</v>
+        <v>1125766</v>
       </c>
       <c r="B24" t="s">
         <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E24" t="s">
         <v>92</v>
@@ -4157,36 +4430,36 @@
         <v>99</v>
       </c>
       <c r="AN24" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="AO24" s="15">
-        <v>0.79</v>
+        <v>3.29</v>
       </c>
       <c r="AP24" t="s">
         <v>101</v>
       </c>
       <c r="AQ24" s="13" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="CZ24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>1124492</v>
+        <v>1125768</v>
       </c>
       <c r="B25" t="s">
         <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="E25" t="s">
         <v>92</v>
       </c>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
         <v>94</v>
@@ -4237,36 +4510,36 @@
         <v>99</v>
       </c>
       <c r="AN25" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="AO25" s="15">
-        <v>0.99</v>
+        <v>2.99</v>
       </c>
       <c r="AP25" t="s">
         <v>101</v>
       </c>
       <c r="AQ25" s="13" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="CZ25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1124493</v>
+        <v>1125770</v>
       </c>
       <c r="B26" t="s">
         <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="E26" t="s">
         <v>92</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
         <v>94</v>
@@ -4317,36 +4590,36 @@
         <v>99</v>
       </c>
       <c r="AN26" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="AO26" s="15">
-        <v>2.99</v>
+        <v>3.99</v>
       </c>
       <c r="AP26" t="s">
         <v>101</v>
       </c>
       <c r="AQ26" s="13" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="CZ26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>37003215</v>
+        <v>1125771</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="G27" t="s">
         <v>94</v>
@@ -4376,54 +4649,57 @@
         <v>97</v>
       </c>
       <c r="AE27" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF27" t="s">
         <v>90</v>
       </c>
       <c r="AG27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH27" t="s">
         <v>90</v>
       </c>
       <c r="AK27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
       </c>
       <c r="AM27" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO27" s="15" t="s">
-        <v>130</v>
+        <v>186</v>
+      </c>
+      <c r="AO27" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>101</v>
       </c>
       <c r="AQ27" s="13" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="CZ27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>37003217</v>
+        <v>1125772</v>
       </c>
       <c r="B28" t="s">
         <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
         <v>94</v>
@@ -4453,54 +4729,57 @@
         <v>97</v>
       </c>
       <c r="AE28" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF28" t="s">
         <v>90</v>
       </c>
       <c r="AG28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH28" t="s">
         <v>90</v>
       </c>
       <c r="AK28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
       </c>
       <c r="AM28" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO28" s="15" t="s">
-        <v>130</v>
+        <v>189</v>
+      </c>
+      <c r="AO28" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>101</v>
       </c>
       <c r="AQ28" s="13" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="CZ28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>37003223</v>
+        <v>1125773</v>
       </c>
       <c r="B29" t="s">
         <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="G29" t="s">
         <v>94</v>
@@ -4530,54 +4809,57 @@
         <v>97</v>
       </c>
       <c r="AE29" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF29" t="s">
         <v>90</v>
       </c>
       <c r="AG29" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH29" t="s">
         <v>90</v>
       </c>
       <c r="AK29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
       </c>
       <c r="AM29" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN29" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO29" s="15" t="s">
-        <v>130</v>
+        <v>192</v>
+      </c>
+      <c r="AO29" s="15">
+        <v>3.99</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>101</v>
       </c>
       <c r="AQ29" s="13" t="s">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="CZ29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>37003225</v>
+        <v>1125774</v>
       </c>
       <c r="B30" t="s">
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F30" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
         <v>94</v>
@@ -4607,54 +4889,57 @@
         <v>97</v>
       </c>
       <c r="AE30" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF30" t="s">
         <v>90</v>
       </c>
       <c r="AG30" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH30" t="s">
         <v>90</v>
       </c>
       <c r="AK30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
       </c>
       <c r="AM30" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN30" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO30" s="15" t="s">
-        <v>130</v>
+        <v>195</v>
+      </c>
+      <c r="AO30" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>101</v>
       </c>
       <c r="AQ30" s="13" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="CZ30" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>37003226</v>
+        <v>1125775</v>
       </c>
       <c r="B31" t="s">
         <v>90</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="E31" t="s">
         <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="G31" t="s">
         <v>94</v>
@@ -4666,7 +4951,7 @@
         <v>96</v>
       </c>
       <c r="M31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N31" t="s">
         <v>90</v>
@@ -4677,14 +4962,8 @@
       <c r="P31" t="s">
         <v>90</v>
       </c>
-      <c r="S31" t="s">
-        <v>97</v>
-      </c>
-      <c r="T31" t="s">
-        <v>97</v>
-      </c>
       <c r="AE31" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF31" t="s">
         <v>90</v>
@@ -4696,42 +4975,42 @@
         <v>90</v>
       </c>
       <c r="AK31" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL31" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM31" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN31" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO31" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ31" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ31" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>37003227</v>
+        <v>1125777</v>
       </c>
       <c r="B32" t="s">
         <v>90</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="G32" t="s">
         <v>94</v>
@@ -4761,54 +5040,57 @@
         <v>97</v>
       </c>
       <c r="AE32" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF32" t="s">
         <v>90</v>
       </c>
       <c r="AG32" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH32" t="s">
         <v>90</v>
       </c>
       <c r="AK32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
       </c>
       <c r="AM32" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN32" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO32" s="15" t="s">
-        <v>130</v>
+        <v>200</v>
+      </c>
+      <c r="AO32" s="15">
+        <v>3.39</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>101</v>
       </c>
       <c r="AQ32" s="13" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="CZ32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>37003228</v>
+        <v>1125779</v>
       </c>
       <c r="B33" t="s">
         <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G33" t="s">
         <v>94</v>
@@ -4838,54 +5120,57 @@
         <v>97</v>
       </c>
       <c r="AE33" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF33" t="s">
         <v>90</v>
       </c>
       <c r="AG33" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH33" t="s">
         <v>90</v>
       </c>
       <c r="AK33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL33" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
       </c>
       <c r="AM33" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN33" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO33" s="15" t="s">
-        <v>130</v>
+        <v>203</v>
+      </c>
+      <c r="AO33" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>101</v>
       </c>
       <c r="AQ33" s="13" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
       <c r="CZ33" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>37003229</v>
+        <v>1125780</v>
       </c>
       <c r="B34" t="s">
         <v>90</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="E34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="G34" t="s">
         <v>94</v>
@@ -4915,54 +5200,57 @@
         <v>97</v>
       </c>
       <c r="AE34" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF34" t="s">
         <v>90</v>
       </c>
       <c r="AG34" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH34" t="s">
         <v>90</v>
       </c>
       <c r="AK34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
       </c>
       <c r="AM34" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN34" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO34" s="15" t="s">
-        <v>130</v>
+        <v>207</v>
+      </c>
+      <c r="AO34" s="15">
+        <v>2.19</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>101</v>
       </c>
       <c r="AQ34" s="13" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="CZ34" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>37003231</v>
+        <v>1125781</v>
       </c>
       <c r="B35" t="s">
         <v>90</v>
       </c>
       <c r="C35" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F35" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="G35" t="s">
         <v>94</v>
@@ -4992,54 +5280,57 @@
         <v>97</v>
       </c>
       <c r="AE35" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF35" t="s">
         <v>90</v>
       </c>
       <c r="AG35" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH35" t="s">
         <v>90</v>
       </c>
       <c r="AK35" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
       </c>
       <c r="AM35" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN35" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO35" s="15" t="s">
-        <v>130</v>
+        <v>210</v>
+      </c>
+      <c r="AO35" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="AP35" t="s">
+        <v>101</v>
       </c>
       <c r="AQ35" s="13" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="CZ35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>37003233</v>
+        <v>1125784</v>
       </c>
       <c r="B36" t="s">
         <v>90</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
         <v>90</v>
       </c>
       <c r="F36" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="G36" t="s">
         <v>94</v>
@@ -5051,7 +5342,7 @@
         <v>96</v>
       </c>
       <c r="M36" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N36" t="s">
         <v>90</v>
@@ -5062,14 +5353,8 @@
       <c r="P36" t="s">
         <v>90</v>
       </c>
-      <c r="S36" t="s">
-        <v>97</v>
-      </c>
-      <c r="T36" t="s">
-        <v>97</v>
-      </c>
       <c r="AE36" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF36" t="s">
         <v>90</v>
@@ -5081,42 +5366,42 @@
         <v>90</v>
       </c>
       <c r="AK36" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL36" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM36" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN36" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO36" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ36" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ36" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>37003235</v>
+        <v>1125785</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
         <v>90</v>
       </c>
       <c r="F37" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>94</v>
@@ -5128,7 +5413,7 @@
         <v>96</v>
       </c>
       <c r="M37" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N37" t="s">
         <v>90</v>
@@ -5139,14 +5424,8 @@
       <c r="P37" t="s">
         <v>90</v>
       </c>
-      <c r="S37" t="s">
-        <v>97</v>
-      </c>
-      <c r="T37" t="s">
-        <v>97</v>
-      </c>
       <c r="AE37" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF37" t="s">
         <v>90</v>
@@ -5158,42 +5437,42 @@
         <v>90</v>
       </c>
       <c r="AK37" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL37" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM37" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN37" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO37" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ37" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37003237</v>
+        <v>1125786</v>
       </c>
       <c r="B38" t="s">
         <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="E38" t="s">
         <v>90</v>
       </c>
       <c r="F38" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="G38" t="s">
         <v>94</v>
@@ -5205,7 +5484,7 @@
         <v>96</v>
       </c>
       <c r="M38" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N38" t="s">
         <v>90</v>
@@ -5216,14 +5495,8 @@
       <c r="P38" t="s">
         <v>90</v>
       </c>
-      <c r="S38" t="s">
-        <v>97</v>
-      </c>
-      <c r="T38" t="s">
-        <v>97</v>
-      </c>
       <c r="AE38" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF38" t="s">
         <v>90</v>
@@ -5235,42 +5508,42 @@
         <v>90</v>
       </c>
       <c r="AK38" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL38" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN38" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO38" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ38" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ38" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37003239</v>
+        <v>1125790</v>
       </c>
       <c r="B39" t="s">
         <v>90</v>
       </c>
       <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="s">
         <v>182</v>
-      </c>
-      <c r="E39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" t="s">
-        <v>173</v>
       </c>
       <c r="G39" t="s">
         <v>94</v>
@@ -5300,54 +5573,57 @@
         <v>97</v>
       </c>
       <c r="AE39" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF39" t="s">
         <v>90</v>
       </c>
       <c r="AG39" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH39" t="s">
         <v>90</v>
       </c>
       <c r="AK39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
       </c>
       <c r="AM39" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO39" s="15" t="s">
-        <v>130</v>
+        <v>216</v>
+      </c>
+      <c r="AO39" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>101</v>
       </c>
       <c r="AQ39" s="13" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="CZ39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>37003241</v>
+        <v>1125798</v>
       </c>
       <c r="B40" t="s">
         <v>90</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F40" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
         <v>94</v>
@@ -5377,54 +5653,57 @@
         <v>97</v>
       </c>
       <c r="AE40" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF40" t="s">
         <v>90</v>
       </c>
       <c r="AG40" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH40" t="s">
         <v>90</v>
       </c>
       <c r="AK40" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL40" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
       </c>
       <c r="AM40" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="AN40" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO40" s="15" t="s">
-        <v>130</v>
+        <v>219</v>
+      </c>
+      <c r="AO40" s="15">
+        <v>2.29</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>120</v>
       </c>
       <c r="AQ40" s="13" t="s">
-        <v>131</v>
+        <v>220</v>
       </c>
       <c r="CZ40" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>37003243</v>
+        <v>1126194</v>
       </c>
       <c r="B41" t="s">
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="E41" t="s">
         <v>90</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="G41" t="s">
         <v>94</v>
@@ -5454,7 +5733,7 @@
         <v>97</v>
       </c>
       <c r="AE41" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF41" t="s">
         <v>90</v>
@@ -5466,46 +5745,52 @@
         <v>90</v>
       </c>
       <c r="AK41" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL41" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM41" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN41" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO41" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ41" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>37003245</v>
+        <v>1126195</v>
       </c>
       <c r="B42" t="s">
         <v>90</v>
       </c>
       <c r="C42" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="E42" t="s">
         <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>173</v>
+        <v>224</v>
       </c>
       <c r="G42" t="s">
         <v>94</v>
       </c>
+      <c r="I42" t="s">
+        <v>225</v>
+      </c>
+      <c r="J42" t="s">
+        <v>226</v>
+      </c>
       <c r="K42" t="s">
         <v>95</v>
       </c>
@@ -5531,7 +5816,7 @@
         <v>97</v>
       </c>
       <c r="AE42" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="AF42" t="s">
         <v>90</v>
@@ -5543,42 +5828,42 @@
         <v>90</v>
       </c>
       <c r="AK42" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AL42" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AM42" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AN42" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AO42" s="15" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="AQ42" s="13" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="CZ42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>37003261</v>
+        <v>1126200</v>
       </c>
       <c r="B43" t="s">
         <v>90</v>
       </c>
       <c r="C43" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="G43" t="s">
         <v>94</v>
@@ -5608,54 +5893,57 @@
         <v>97</v>
       </c>
       <c r="AE43" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF43" t="s">
         <v>90</v>
       </c>
       <c r="AG43" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH43" t="s">
         <v>90</v>
       </c>
       <c r="AK43" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
       </c>
       <c r="AM43" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN43" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO43" s="15" t="s">
-        <v>130</v>
+        <v>228</v>
+      </c>
+      <c r="AO43" s="15">
+        <v>6.99</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>101</v>
       </c>
       <c r="AQ43" s="13" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="CZ43" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>37003262</v>
+        <v>1126201</v>
       </c>
       <c r="B44" t="s">
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F44" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="G44" t="s">
         <v>94</v>
@@ -5685,54 +5973,57 @@
         <v>97</v>
       </c>
       <c r="AE44" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF44" t="s">
         <v>90</v>
       </c>
       <c r="AG44" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH44" t="s">
         <v>90</v>
       </c>
       <c r="AK44" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL44" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
       </c>
       <c r="AM44" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN44" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO44" s="15" t="s">
-        <v>130</v>
+        <v>231</v>
+      </c>
+      <c r="AO44" s="15">
+        <v>6.99</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>101</v>
       </c>
       <c r="AQ44" s="13" t="s">
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="CZ44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>37003263</v>
+        <v>1126202</v>
       </c>
       <c r="B45" t="s">
         <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F45" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="G45" t="s">
         <v>94</v>
@@ -5762,54 +6053,57 @@
         <v>97</v>
       </c>
       <c r="AE45" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF45" t="s">
         <v>90</v>
       </c>
       <c r="AG45" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH45" t="s">
         <v>90</v>
       </c>
       <c r="AK45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL45" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
       </c>
       <c r="AM45" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN45" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO45" s="15" t="s">
-        <v>130</v>
+        <v>234</v>
+      </c>
+      <c r="AO45" s="15">
+        <v>5.49</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>101</v>
       </c>
       <c r="AQ45" s="13" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="CZ45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>37003265</v>
+        <v>1126204</v>
       </c>
       <c r="B46" t="s">
         <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F46" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G46" t="s">
         <v>94</v>
@@ -5839,51 +6133,57 @@
         <v>97</v>
       </c>
       <c r="AE46" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF46" t="s">
         <v>90</v>
       </c>
       <c r="AG46" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH46" t="s">
         <v>90</v>
       </c>
       <c r="AK46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL46" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
       </c>
       <c r="AM46" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN46" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO46" s="15" t="s">
-        <v>130</v>
+        <v>237</v>
+      </c>
+      <c r="AO46" s="15">
+        <v>6.99</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>101</v>
       </c>
       <c r="AQ46" s="13" t="s">
-        <v>131</v>
+        <v>238</v>
+      </c>
+      <c r="CZ46" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>37003267</v>
+        <v>1126206</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="E47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F47" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
         <v>94</v>
@@ -5913,54 +6213,57 @@
         <v>97</v>
       </c>
       <c r="AE47" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF47" t="s">
         <v>90</v>
       </c>
       <c r="AG47" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH47" t="s">
         <v>90</v>
       </c>
       <c r="AK47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
       </c>
       <c r="AM47" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO47" s="15" t="s">
-        <v>130</v>
+        <v>240</v>
+      </c>
+      <c r="AO47" s="15">
+        <v>6.99</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>101</v>
       </c>
       <c r="AQ47" s="13" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="CZ47" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>37003268</v>
+        <v>1126210</v>
       </c>
       <c r="B48" t="s">
         <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="E48" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
         <v>94</v>
@@ -5990,54 +6293,57 @@
         <v>97</v>
       </c>
       <c r="AE48" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF48" t="s">
         <v>90</v>
       </c>
       <c r="AG48" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH48" t="s">
         <v>90</v>
       </c>
       <c r="AK48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL48" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
       </c>
       <c r="AM48" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN48" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO48" s="15" t="s">
-        <v>130</v>
+        <v>243</v>
+      </c>
+      <c r="AO48" s="15">
+        <v>5.49</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>101</v>
       </c>
       <c r="AQ48" s="13" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="CZ48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>37003271</v>
+        <v>1126211</v>
       </c>
       <c r="B49" t="s">
         <v>90</v>
       </c>
       <c r="C49" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F49" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="G49" t="s">
         <v>94</v>
@@ -6067,54 +6373,57 @@
         <v>97</v>
       </c>
       <c r="AE49" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF49" t="s">
         <v>90</v>
       </c>
       <c r="AG49" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH49" t="s">
         <v>90</v>
       </c>
       <c r="AK49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL49" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
       </c>
       <c r="AM49" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO49" s="15" t="s">
-        <v>130</v>
+        <v>246</v>
+      </c>
+      <c r="AO49" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="AP49" t="s">
+        <v>101</v>
       </c>
       <c r="AQ49" s="13" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="CZ49" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="50" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>37003272</v>
+        <v>1126214</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
       </c>
       <c r="C50" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F50" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="G50" t="s">
         <v>94</v>
@@ -6144,54 +6453,57 @@
         <v>97</v>
       </c>
       <c r="AE50" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF50" t="s">
         <v>90</v>
       </c>
       <c r="AG50" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH50" t="s">
         <v>90</v>
       </c>
       <c r="AK50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL50" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
       </c>
       <c r="AM50" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN50" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO50" s="15" t="s">
-        <v>130</v>
+        <v>250</v>
+      </c>
+      <c r="AO50" s="15">
+        <v>2.99</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>101</v>
       </c>
       <c r="AQ50" s="13" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="CZ50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>37003273</v>
+        <v>1126216</v>
       </c>
       <c r="B51" t="s">
         <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="E51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="G51" t="s">
         <v>94</v>
@@ -6221,54 +6533,57 @@
         <v>97</v>
       </c>
       <c r="AE51" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF51" t="s">
         <v>90</v>
       </c>
       <c r="AG51" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH51" t="s">
         <v>90</v>
       </c>
       <c r="AK51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL51" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
       </c>
       <c r="AM51" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN51" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO51" s="15" t="s">
-        <v>130</v>
+        <v>254</v>
+      </c>
+      <c r="AO51" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="AP51" t="s">
+        <v>101</v>
       </c>
       <c r="AQ51" s="13" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="CZ51" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>37003274</v>
+        <v>1126218</v>
       </c>
       <c r="B52" t="s">
         <v>90</v>
       </c>
       <c r="C52" t="s">
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="E52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="G52" t="s">
         <v>94</v>
@@ -6280,7 +6595,7 @@
         <v>96</v>
       </c>
       <c r="M52" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="N52" t="s">
         <v>90</v>
@@ -6291,52 +6606,64 @@
       <c r="P52" t="s">
         <v>90</v>
       </c>
+      <c r="S52" t="s">
+        <v>97</v>
+      </c>
+      <c r="T52" t="s">
+        <v>97</v>
+      </c>
       <c r="AE52" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF52" t="s">
         <v>90</v>
       </c>
       <c r="AG52" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH52" t="s">
         <v>90</v>
       </c>
       <c r="AK52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL52" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
       </c>
       <c r="AM52" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN52" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO52" s="15" t="s">
-        <v>130</v>
+        <v>257</v>
+      </c>
+      <c r="AO52" s="15">
+        <v>4.59</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>101</v>
       </c>
       <c r="AQ52" s="13" t="s">
-        <v>131</v>
+        <v>258</v>
+      </c>
+      <c r="CZ52" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>37003275</v>
+        <v>1126220</v>
       </c>
       <c r="B53" t="s">
         <v>90</v>
       </c>
       <c r="C53" t="s">
-        <v>196</v>
+        <v>259</v>
       </c>
       <c r="E53" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F53" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="G53" t="s">
         <v>94</v>
@@ -6366,54 +6693,57 @@
         <v>97</v>
       </c>
       <c r="AE53" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF53" t="s">
         <v>90</v>
       </c>
       <c r="AG53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH53" t="s">
         <v>90</v>
       </c>
       <c r="AK53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL53" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
       </c>
       <c r="AM53" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN53" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO53" s="15" t="s">
-        <v>130</v>
+        <v>260</v>
+      </c>
+      <c r="AO53" s="15">
+        <v>3.59</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>101</v>
       </c>
       <c r="AQ53" s="13" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="CZ53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>37003276</v>
+        <v>1126233</v>
       </c>
       <c r="B54" t="s">
         <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F54" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="G54" t="s">
         <v>94</v>
@@ -6443,54 +6773,57 @@
         <v>97</v>
       </c>
       <c r="AE54" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF54" t="s">
         <v>90</v>
       </c>
       <c r="AG54" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH54" t="s">
         <v>90</v>
       </c>
       <c r="AK54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL54" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
       </c>
       <c r="AM54" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN54" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO54" s="15" t="s">
-        <v>130</v>
+        <v>264</v>
+      </c>
+      <c r="AO54" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>101</v>
       </c>
       <c r="AQ54" s="13" t="s">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="CZ54" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>37003277</v>
+        <v>1126234</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="E55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F55" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="G55" t="s">
         <v>94</v>
@@ -6520,54 +6853,57 @@
         <v>97</v>
       </c>
       <c r="AE55" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF55" t="s">
         <v>90</v>
       </c>
       <c r="AG55" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH55" t="s">
         <v>90</v>
       </c>
       <c r="AK55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL55" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
       </c>
       <c r="AM55" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN55" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO55" s="15" t="s">
-        <v>130</v>
+        <v>267</v>
+      </c>
+      <c r="AO55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP55" t="s">
+        <v>101</v>
       </c>
       <c r="AQ55" s="13" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="CZ55" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>37003278</v>
+        <v>1126236</v>
       </c>
       <c r="B56" t="s">
         <v>90</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>269</v>
       </c>
       <c r="E56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F56" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="G56" t="s">
         <v>94</v>
@@ -6597,64 +6933,61 @@
         <v>97</v>
       </c>
       <c r="AE56" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF56" t="s">
         <v>90</v>
       </c>
       <c r="AG56" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH56" t="s">
         <v>90</v>
       </c>
       <c r="AK56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL56" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
       </c>
       <c r="AM56" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN56" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO56" s="15" t="s">
-        <v>130</v>
+        <v>270</v>
+      </c>
+      <c r="AO56" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>101</v>
       </c>
       <c r="AQ56" s="13" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="CZ56" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1124676</v>
+        <v>1126237</v>
       </c>
       <c r="B57" t="s">
         <v>90</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="E57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="G57" t="s">
         <v>94</v>
       </c>
-      <c r="I57" t="s">
-        <v>201</v>
-      </c>
-      <c r="J57" t="s">
-        <v>128</v>
-      </c>
       <c r="K57" t="s">
         <v>95</v>
       </c>
@@ -6680,54 +7013,57 @@
         <v>97</v>
       </c>
       <c r="AE57" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="AF57" t="s">
         <v>90</v>
       </c>
       <c r="AG57" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AH57" t="s">
         <v>90</v>
       </c>
       <c r="AK57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL57" t="s">
-        <v>130</v>
+        <v>97</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
       </c>
       <c r="AM57" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AN57" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO57" s="15" t="s">
-        <v>130</v>
+        <v>273</v>
+      </c>
+      <c r="AO57" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP57" t="s">
+        <v>101</v>
       </c>
       <c r="AQ57" s="13" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="CZ57" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:104" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>37003321</v>
+        <v>1126238</v>
       </c>
       <c r="B58" t="s">
         <v>90</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
         <v>92</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="G58" t="s">
         <v>94</v>
@@ -6775,335 +7111,21 @@
         <v>1</v>
       </c>
       <c r="AM58" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="AN58" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="AO58" s="15">
-        <v>4.79</v>
+        <v>0</v>
       </c>
       <c r="AP58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AQ58" s="13" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="CZ58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:104" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>37003331</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" t="s">
-        <v>133</v>
-      </c>
-      <c r="G59" t="s">
-        <v>94</v>
-      </c>
-      <c r="K59" t="s">
-        <v>95</v>
-      </c>
-      <c r="L59" t="s">
-        <v>96</v>
-      </c>
-      <c r="M59" t="s">
-        <v>96</v>
-      </c>
-      <c r="N59" t="s">
-        <v>90</v>
-      </c>
-      <c r="O59" t="s">
-        <v>90</v>
-      </c>
-      <c r="P59" t="s">
-        <v>90</v>
-      </c>
-      <c r="S59" t="s">
-        <v>97</v>
-      </c>
-      <c r="T59" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG59" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN59" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO59" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ59" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:104" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>37003332</v>
-      </c>
-      <c r="B60" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" t="s">
-        <v>208</v>
-      </c>
-      <c r="E60" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" t="s">
-        <v>209</v>
-      </c>
-      <c r="G60" t="s">
-        <v>94</v>
-      </c>
-      <c r="K60" t="s">
-        <v>95</v>
-      </c>
-      <c r="L60" t="s">
-        <v>96</v>
-      </c>
-      <c r="M60" t="s">
-        <v>96</v>
-      </c>
-      <c r="N60" t="s">
-        <v>90</v>
-      </c>
-      <c r="O60" t="s">
-        <v>90</v>
-      </c>
-      <c r="P60" t="s">
-        <v>90</v>
-      </c>
-      <c r="S60" t="s">
-        <v>97</v>
-      </c>
-      <c r="T60" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG60" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH60" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN60" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO60" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ60" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:104" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>1124886</v>
-      </c>
-      <c r="B61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" t="s">
-        <v>210</v>
-      </c>
-      <c r="E61" t="s">
-        <v>90</v>
-      </c>
-      <c r="F61" t="s">
-        <v>126</v>
-      </c>
-      <c r="G61" t="s">
-        <v>94</v>
-      </c>
-      <c r="I61" t="s">
-        <v>211</v>
-      </c>
-      <c r="K61" t="s">
-        <v>95</v>
-      </c>
-      <c r="L61" t="s">
-        <v>96</v>
-      </c>
-      <c r="M61" t="s">
-        <v>96</v>
-      </c>
-      <c r="N61" t="s">
-        <v>90</v>
-      </c>
-      <c r="O61" t="s">
-        <v>90</v>
-      </c>
-      <c r="P61" t="s">
-        <v>90</v>
-      </c>
-      <c r="S61" t="s">
-        <v>97</v>
-      </c>
-      <c r="T61" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN61" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO61" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ61" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:104" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>1124889</v>
-      </c>
-      <c r="B62" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" t="s">
-        <v>137</v>
-      </c>
-      <c r="G62" t="s">
-        <v>94</v>
-      </c>
-      <c r="I62" t="s">
-        <v>213</v>
-      </c>
-      <c r="K62" t="s">
-        <v>95</v>
-      </c>
-      <c r="L62" t="s">
-        <v>96</v>
-      </c>
-      <c r="M62" t="s">
-        <v>96</v>
-      </c>
-      <c r="N62" t="s">
-        <v>90</v>
-      </c>
-      <c r="O62" t="s">
-        <v>90</v>
-      </c>
-      <c r="P62" t="s">
-        <v>90</v>
-      </c>
-      <c r="S62" t="s">
-        <v>97</v>
-      </c>
-      <c r="T62" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG62" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AL62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN62" t="s">
-        <v>130</v>
-      </c>
-      <c r="AO62" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AQ62" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="CZ62" t="s">
         <v>103</v>
       </c>
     </row>
